--- a/Code/Results/Cases/Case_3_117/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_117/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.84525019958075</v>
+        <v>7.606131260226796</v>
       </c>
       <c r="C2">
-        <v>5.886834791593559</v>
+        <v>5.751856910868507</v>
       </c>
       <c r="D2">
-        <v>4.757352622013914</v>
+        <v>5.06192125803937</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.03922586144734</v>
+        <v>25.25945130385455</v>
       </c>
       <c r="G2">
-        <v>2.089688279200562</v>
+        <v>3.636275081473431</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.761260404507096</v>
+        <v>7.458445890786765</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.68911588762379</v>
+        <v>19.97654202861501</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.17326748023712</v>
+        <v>22.58566493674111</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.21050964143915</v>
+        <v>7.377235253427808</v>
       </c>
       <c r="C3">
-        <v>5.830061112896127</v>
+        <v>5.717459883635561</v>
       </c>
       <c r="D3">
-        <v>4.646334893062401</v>
+        <v>5.015845950737418</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.61642720564381</v>
+        <v>25.24974544060774</v>
       </c>
       <c r="G3">
-        <v>2.094949894704908</v>
+        <v>3.638115586870246</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.347974095898339</v>
+        <v>7.259909549470789</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.40894954242705</v>
+        <v>19.38498955004004</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.07239084389501</v>
+        <v>22.62847728711807</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.798841898143998</v>
+        <v>7.234382033268284</v>
       </c>
       <c r="C4">
-        <v>5.793853709017139</v>
+        <v>5.695938486449563</v>
       </c>
       <c r="D4">
-        <v>4.575695535255864</v>
+        <v>4.986785028342326</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.37112955567691</v>
+        <v>25.25022058531678</v>
       </c>
       <c r="G4">
-        <v>2.098259564433814</v>
+        <v>3.639304350111979</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.082646375841632</v>
+        <v>7.133610582942855</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.95904560040805</v>
+        <v>19.02068059439236</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.02413790505063</v>
+        <v>22.65951251182187</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.625611283958358</v>
+        <v>7.175682996269472</v>
       </c>
       <c r="C5">
-        <v>5.778801494064932</v>
+        <v>5.687071338551586</v>
       </c>
       <c r="D5">
-        <v>4.546321871526985</v>
+        <v>4.974753498186038</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.27475817205806</v>
+        <v>25.25203176650866</v>
       </c>
       <c r="G5">
-        <v>2.099629321975678</v>
+        <v>3.639803589247196</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.971710012272176</v>
+        <v>7.081079221741129</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.3548347792104</v>
+        <v>18.87219530899819</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.00778016661844</v>
+        <v>22.67335042822848</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.596517404354572</v>
+        <v>7.165909686835303</v>
       </c>
       <c r="C6">
-        <v>5.776285263541451</v>
+        <v>5.685593212772677</v>
       </c>
       <c r="D6">
-        <v>4.541409923891225</v>
+        <v>4.972744399999689</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.25897223958381</v>
+        <v>25.25243017219965</v>
       </c>
       <c r="G6">
-        <v>2.099858071955301</v>
+        <v>3.63988738343262</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.953122207018223</v>
+        <v>7.072293494308892</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.25367685924792</v>
+        <v>18.8475453280499</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.00525965866631</v>
+        <v>22.67572002766371</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.79652774374328</v>
+        <v>7.233592230733925</v>
       </c>
       <c r="C7">
-        <v>5.79365186171348</v>
+        <v>5.695819288551258</v>
       </c>
       <c r="D7">
-        <v>4.575301724985253</v>
+        <v>4.98662352569182</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.36981533779752</v>
+        <v>25.25023846366398</v>
       </c>
       <c r="G7">
-        <v>2.098277950808797</v>
+        <v>3.639311022998422</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.081161505679248</v>
+        <v>7.132906374606243</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.95095212020804</v>
+        <v>19.01867784026386</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.02390409364155</v>
+        <v>22.65969431772965</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.63096684908622</v>
+        <v>7.527742759937049</v>
       </c>
       <c r="C8">
-        <v>5.867565410527494</v>
+        <v>5.740082500752775</v>
       </c>
       <c r="D8">
-        <v>4.719607960222898</v>
+        <v>5.046197243167567</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>19.8904734467013</v>
+        <v>25.25476926941091</v>
       </c>
       <c r="G8">
-        <v>2.091486829317495</v>
+        <v>3.636897538649521</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.621214799054178</v>
+        <v>7.390927328139709</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28.91273502342846</v>
+        <v>19.7729470224061</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.1355631780463</v>
+        <v>22.5994392932262</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.09181275088724</v>
+        <v>8.082378077685485</v>
       </c>
       <c r="C9">
-        <v>5.999675909297756</v>
+        <v>5.823526422685578</v>
       </c>
       <c r="D9">
-        <v>4.981409868681616</v>
+        <v>5.156704069893439</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.02525580423199</v>
+        <v>25.31468401195566</v>
       </c>
       <c r="G9">
-        <v>2.078735777349488</v>
+        <v>3.632627988667851</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.58467363915014</v>
+        <v>7.860343345516509</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.36920165906105</v>
+        <v>21.23312899292488</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.46921595132503</v>
+        <v>22.51908760281704</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.05651444827681</v>
+        <v>8.471658719519946</v>
       </c>
       <c r="C10">
-        <v>6.085354153729704</v>
+        <v>5.882562777267091</v>
       </c>
       <c r="D10">
-        <v>5.158614047629497</v>
+        <v>5.233779323840584</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.92927997850511</v>
+        <v>25.38970953558893</v>
       </c>
       <c r="G10">
-        <v>2.069612555657394</v>
+        <v>3.629770271922773</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.22946817038618</v>
+        <v>8.180927827228578</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.2402283967917</v>
+        <v>22.28169345193771</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.79284031265108</v>
+        <v>22.48326975802066</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.47147123373836</v>
+        <v>8.643949480324915</v>
       </c>
       <c r="C11">
-        <v>6.120814058251287</v>
+        <v>5.90888048197591</v>
       </c>
       <c r="D11">
-        <v>5.235389061715828</v>
+        <v>5.267896044441742</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.35633140764087</v>
+        <v>25.4305267769183</v>
       </c>
       <c r="G11">
-        <v>2.065486911644787</v>
+        <v>3.628530123281358</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.50808384003872</v>
+        <v>8.321133863961434</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>39.99454250754238</v>
+        <v>22.75109401400452</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.95908145402253</v>
+        <v>22.47204654863183</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.6251323339031</v>
+        <v>8.708440474218602</v>
       </c>
       <c r="C12">
-        <v>6.133619013426108</v>
+        <v>5.918765032128113</v>
       </c>
       <c r="D12">
-        <v>5.263854468915763</v>
+        <v>5.280674860412804</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.52039874328888</v>
+        <v>25.44693890616376</v>
       </c>
       <c r="G12">
-        <v>2.063925124986617</v>
+        <v>3.628069062168646</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.61137727758655</v>
+        <v>8.373390478691297</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.66053595951649</v>
+        <v>22.92757792673921</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.02494789220331</v>
+        <v>22.46852763796697</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.59219392364639</v>
+        <v>8.694585543089572</v>
       </c>
       <c r="C13">
-        <v>6.130891175915001</v>
+        <v>5.916639900337841</v>
       </c>
       <c r="D13">
-        <v>5.257751975501269</v>
+        <v>5.277929030742651</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.48495753663144</v>
+        <v>25.44336187416424</v>
       </c>
       <c r="G13">
-        <v>2.064261517518649</v>
+        <v>3.628167980161467</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.58923131887921</v>
+        <v>8.362173677750533</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.51697767971029</v>
+        <v>22.88962796251472</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.01062966290523</v>
+        <v>22.469252956196</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.48418291429007</v>
+        <v>8.649270593611574</v>
       </c>
       <c r="C14">
-        <v>6.121880806053859</v>
+        <v>5.909695343781263</v>
       </c>
       <c r="D14">
-        <v>5.23774346736923</v>
+        <v>5.268950205514461</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.36978156826991</v>
+        <v>25.43185790210666</v>
       </c>
       <c r="G14">
-        <v>2.065358432389761</v>
+        <v>3.628492020304445</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.51662681001189</v>
+        <v>8.325449953199287</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.04928284653146</v>
+        <v>22.76563980712389</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.96444081062068</v>
+        <v>22.4717423839687</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.41756928258606</v>
+        <v>8.621414237618012</v>
       </c>
       <c r="C15">
-        <v>6.116276522702748</v>
+        <v>5.905430884999443</v>
       </c>
       <c r="D15">
-        <v>5.22540669310089</v>
+        <v>5.263431993575491</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.29954240631901</v>
+        <v>25.4249356211625</v>
       </c>
       <c r="G15">
-        <v>2.066030287828426</v>
+        <v>3.628691617081777</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.47186316990999</v>
+        <v>8.302845941816804</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.76311512765933</v>
+        <v>22.68952344596023</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.93653404223206</v>
+        <v>22.47336248984715</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.02891225660076</v>
+        <v>8.46029715427678</v>
       </c>
       <c r="C16">
-        <v>6.082956698166815</v>
+        <v>5.880831679733789</v>
       </c>
       <c r="D16">
-        <v>5.153514882890387</v>
+        <v>5.231530306017594</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.90169504039536</v>
+        <v>25.3871761081573</v>
       </c>
       <c r="G16">
-        <v>2.069882427651303</v>
+        <v>3.629852518531863</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.21095607013033</v>
+        <v>8.171649394141166</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.12565432260725</v>
+        <v>22.25084876614374</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.78237369948821</v>
+        <v>22.48410542637273</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.78434054444046</v>
+        <v>8.360182549840971</v>
       </c>
       <c r="C17">
-        <v>6.061541547038376</v>
+        <v>5.8656001472045</v>
       </c>
       <c r="D17">
-        <v>5.108392416434036</v>
+        <v>5.211714302190792</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.66172054763528</v>
+        <v>25.36572076179882</v>
       </c>
       <c r="G17">
-        <v>2.072249940136771</v>
+        <v>3.63057998591382</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.0470666442194</v>
+        <v>8.089702719994273</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.12107466756586</v>
+        <v>21.97966009150152</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.69279489135113</v>
+        <v>22.49199603603594</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.64142338643507</v>
+        <v>8.302151249356486</v>
       </c>
       <c r="C18">
-        <v>6.048901757745765</v>
+        <v>5.856788947078917</v>
       </c>
       <c r="D18">
-        <v>5.082081940227337</v>
+        <v>5.200227956671554</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.52517452680623</v>
+        <v>25.35401014352255</v>
       </c>
       <c r="G18">
-        <v>2.073614197937302</v>
+        <v>3.631004041341979</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.95142415376652</v>
+        <v>8.042040711738316</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.5424496854633</v>
+        <v>21.82297390853345</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.64305041095233</v>
+        <v>22.49701167108492</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.59264934784312</v>
+        <v>8.28242790355641</v>
       </c>
       <c r="C19">
-        <v>6.044569861352295</v>
+        <v>5.853797088283136</v>
       </c>
       <c r="D19">
-        <v>5.073113850944483</v>
+        <v>5.196323782544544</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.47919500054634</v>
+        <v>25.35015348834542</v>
       </c>
       <c r="G19">
-        <v>2.074076627321018</v>
+        <v>3.631148588603959</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.91880738880669</v>
+        <v>8.025813277485748</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.34632827253749</v>
+        <v>21.76980709313503</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.62650816869404</v>
+        <v>22.49879176778874</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.81060831479819</v>
+        <v>8.370886761339179</v>
       </c>
       <c r="C20">
-        <v>6.063855340554872</v>
+        <v>5.867226817840819</v>
       </c>
       <c r="D20">
-        <v>5.1132331234842</v>
+        <v>5.21383296339841</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.68711252923984</v>
+        <v>25.36793956557812</v>
       </c>
       <c r="G20">
-        <v>2.071997672512397</v>
+        <v>3.63050196287833</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.06465619286801</v>
+        <v>8.098480979189791</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.22808176512908</v>
+        <v>22.00860294420515</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.70214536815642</v>
+        <v>22.49110666727998</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.5160030184441</v>
+        <v>8.662601559915514</v>
       </c>
       <c r="C21">
-        <v>6.124545378553194</v>
+        <v>5.911737368908495</v>
       </c>
       <c r="D21">
-        <v>5.243637445456968</v>
+        <v>5.271591351194028</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.40354684620747</v>
+        <v>25.43521101996411</v>
       </c>
       <c r="G21">
-        <v>2.06503625602448</v>
+        <v>3.628396610033403</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.5380134167401</v>
+        <v>8.336259500441709</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.18658595710045</v>
+        <v>22.8020938586866</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.97792696125214</v>
+        <v>22.47099132369501</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.95674150639497</v>
+        <v>8.848847716638456</v>
       </c>
       <c r="C22">
-        <v>6.160497330353293</v>
+        <v>5.940351355490375</v>
       </c>
       <c r="D22">
-        <v>5.325287066913156</v>
+        <v>5.308519168178968</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.88556180863554</v>
+        <v>25.48474263401324</v>
       </c>
       <c r="G22">
-        <v>2.060487510412548</v>
+        <v>3.627070490157543</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.83442521847017</v>
+        <v>8.486775969702709</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.13173473395197</v>
+        <v>23.31322627202044</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.17525526924291</v>
+        <v>22.46210671210897</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.72338284860815</v>
+        <v>8.749866732009743</v>
       </c>
       <c r="C23">
-        <v>6.141697043872846</v>
+        <v>5.925124411301675</v>
       </c>
       <c r="D23">
-        <v>5.282058229335817</v>
+        <v>5.288886645185122</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.62700120723601</v>
+        <v>25.45779975247493</v>
       </c>
       <c r="G23">
-        <v>2.062916385031279</v>
+        <v>3.627773720104337</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.67744722024902</v>
+        <v>8.406897691543611</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.09142398336923</v>
+        <v>23.04116146847797</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.06830838673282</v>
+        <v>22.46645807495054</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.79873984706495</v>
+        <v>8.36604885918266</v>
       </c>
       <c r="C24">
-        <v>6.062810287562067</v>
+        <v>5.866491569153095</v>
       </c>
       <c r="D24">
-        <v>5.111045785020759</v>
+        <v>5.212875408677372</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.67562840131955</v>
+        <v>25.36693449923727</v>
       </c>
       <c r="G24">
-        <v>2.072111712696607</v>
+        <v>3.630537218946763</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.05670837464295</v>
+        <v>8.094514038562606</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.17970740360865</v>
+        <v>21.99552028469007</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.69791256260309</v>
+        <v>22.49150725838681</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.71557793940244</v>
+        <v>7.935221158198355</v>
       </c>
       <c r="C25">
-        <v>5.965638503697844</v>
+        <v>5.801335220263713</v>
       </c>
       <c r="D25">
-        <v>4.913074337231458</v>
+        <v>5.127512921750752</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.70602456596711</v>
+        <v>25.29301828712395</v>
       </c>
       <c r="G25">
-        <v>2.082133998071566</v>
+        <v>3.633733759986708</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.3347703019101</v>
+        <v>7.737487795013874</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>32.92378714259516</v>
+        <v>20.84151004386216</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.36580565298585</v>
+        <v>22.53675875826899</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_117/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_117/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.606131260226796</v>
+        <v>10.84525019958068</v>
       </c>
       <c r="C2">
-        <v>5.751856910868507</v>
+        <v>5.886834791593559</v>
       </c>
       <c r="D2">
-        <v>5.06192125803937</v>
+        <v>4.757352622013915</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.25945130385455</v>
+        <v>20.03922586144746</v>
       </c>
       <c r="G2">
-        <v>3.636275081473431</v>
+        <v>2.089688279200294</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.458445890786765</v>
+        <v>9.76126040450705</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.97654202861501</v>
+        <v>29.68911588762373</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.58566493674111</v>
+        <v>16.17326748023723</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.377235253427808</v>
+        <v>10.21050964143911</v>
       </c>
       <c r="C3">
-        <v>5.717459883635561</v>
+        <v>5.830061112896122</v>
       </c>
       <c r="D3">
-        <v>5.015845950737418</v>
+        <v>4.646334893062387</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.24974544060774</v>
+        <v>19.61642720564361</v>
       </c>
       <c r="G3">
-        <v>3.638115586870246</v>
+        <v>2.094949894705309</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.259909549470789</v>
+        <v>9.347974095898332</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.38498955004004</v>
+        <v>27.40894954242713</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.62847728711807</v>
+        <v>16.07239084389487</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.234382033268284</v>
+        <v>9.798841898144035</v>
       </c>
       <c r="C4">
-        <v>5.695938486449563</v>
+        <v>5.793853709017253</v>
       </c>
       <c r="D4">
-        <v>4.986785028342326</v>
+        <v>4.575695535255841</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.25022058531678</v>
+        <v>19.37112955567686</v>
       </c>
       <c r="G4">
-        <v>3.639304350111979</v>
+        <v>2.09825956443368</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.133610582942855</v>
+        <v>9.082646375841721</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.02068059439236</v>
+        <v>25.95904560040803</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.65951251182187</v>
+        <v>16.02413790505061</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.175682996269472</v>
+        <v>9.625611283958415</v>
       </c>
       <c r="C5">
-        <v>5.687071338551586</v>
+        <v>5.778801494064817</v>
       </c>
       <c r="D5">
-        <v>4.974753498186038</v>
+        <v>4.546321871527038</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.25203176650866</v>
+        <v>19.2747581720581</v>
       </c>
       <c r="G5">
-        <v>3.639803589247196</v>
+        <v>2.099629321975545</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.081079221741129</v>
+        <v>8.97171001227221</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.87219530899819</v>
+        <v>25.35483477921036</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.67335042822848</v>
+        <v>16.00778016661849</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.165909686835303</v>
+        <v>9.596517404354573</v>
       </c>
       <c r="C6">
-        <v>5.685593212772677</v>
+        <v>5.776285263541568</v>
       </c>
       <c r="D6">
-        <v>4.972744399999689</v>
+        <v>4.541409923891233</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.25243017219965</v>
+        <v>19.25897223958363</v>
       </c>
       <c r="G6">
-        <v>3.63988738343262</v>
+        <v>2.099858071955436</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.072293494308892</v>
+        <v>8.953122207018247</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.8475453280499</v>
+        <v>25.25367685924797</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.67572002766371</v>
+        <v>16.00525965866615</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.233592230733925</v>
+        <v>9.796527743743388</v>
       </c>
       <c r="C7">
-        <v>5.695819288551258</v>
+        <v>5.793651861713466</v>
       </c>
       <c r="D7">
-        <v>4.98662352569182</v>
+        <v>4.575301724985128</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.25023846366398</v>
+        <v>19.36981533779741</v>
       </c>
       <c r="G7">
-        <v>3.639311022998422</v>
+        <v>2.098277950808795</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.132906374606243</v>
+        <v>9.081161505679392</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.01867784026386</v>
+        <v>25.95095212020814</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.65969431772965</v>
+        <v>16.02390409364142</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.527742759937049</v>
+        <v>10.63096684908618</v>
       </c>
       <c r="C8">
-        <v>5.740082500752775</v>
+        <v>5.867565410527358</v>
       </c>
       <c r="D8">
-        <v>5.046197243167567</v>
+        <v>4.719607960223073</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.25476926941091</v>
+        <v>19.89047344670123</v>
       </c>
       <c r="G8">
-        <v>3.636897538649521</v>
+        <v>2.091486829317497</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.390927328139709</v>
+        <v>9.621214799054147</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.7729470224061</v>
+        <v>28.91273502342841</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.5994392932262</v>
+        <v>16.13556317804629</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.082378077685485</v>
+        <v>12.09181275088725</v>
       </c>
       <c r="C9">
-        <v>5.823526422685578</v>
+        <v>5.999675909297864</v>
       </c>
       <c r="D9">
-        <v>5.156704069893439</v>
+        <v>4.98140986868167</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.31468401195566</v>
+        <v>21.02525580423196</v>
       </c>
       <c r="G9">
-        <v>3.632627988667851</v>
+        <v>2.078735777349488</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.860343345516509</v>
+        <v>10.58467363915016</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.23312899292488</v>
+        <v>34.36920165906115</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.51908760281704</v>
+        <v>16.46921595132502</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.471658719519946</v>
+        <v>13.05651444827684</v>
       </c>
       <c r="C10">
-        <v>5.882562777267091</v>
+        <v>6.085354153729359</v>
       </c>
       <c r="D10">
-        <v>5.233779323840584</v>
+        <v>5.158614047629554</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25.38970953558893</v>
+        <v>21.92927997850505</v>
       </c>
       <c r="G10">
-        <v>3.629770271922773</v>
+        <v>2.069612555657129</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.180927827228578</v>
+        <v>11.22946817038616</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.28169345193771</v>
+        <v>38.24022839679174</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.48326975802066</v>
+        <v>16.79284031265101</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.643949480324915</v>
+        <v>13.47147123373836</v>
       </c>
       <c r="C11">
-        <v>5.90888048197591</v>
+        <v>6.120814058251287</v>
       </c>
       <c r="D11">
-        <v>5.267896044441742</v>
+        <v>5.235389061715706</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.4305267769183</v>
+        <v>22.35633140764081</v>
       </c>
       <c r="G11">
-        <v>3.628530123281358</v>
+        <v>2.065486911644785</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.321133863961434</v>
+        <v>11.50808384003873</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.75109401400452</v>
+        <v>39.99454250754243</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.47204654863183</v>
+        <v>16.95908145402241</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.708440474218602</v>
+        <v>13.62513233390305</v>
       </c>
       <c r="C12">
-        <v>5.918765032128113</v>
+        <v>6.133619013426453</v>
       </c>
       <c r="D12">
-        <v>5.280674860412804</v>
+        <v>5.263854468915705</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.44693890616376</v>
+        <v>22.5203987432889</v>
       </c>
       <c r="G12">
-        <v>3.628069062168646</v>
+        <v>2.063925124986751</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.373390478691297</v>
+        <v>11.6113772775866</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.92757792673921</v>
+        <v>40.66053595951649</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.46852763796697</v>
+        <v>17.02494789220334</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.694585543089572</v>
+        <v>13.59219392364635</v>
       </c>
       <c r="C13">
-        <v>5.916639900337841</v>
+        <v>6.130891175914982</v>
       </c>
       <c r="D13">
-        <v>5.277929030742651</v>
+        <v>5.257751975501269</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.44336187416424</v>
+        <v>22.48495753663146</v>
       </c>
       <c r="G13">
-        <v>3.628167980161467</v>
+        <v>2.064261517518514</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.362173677750533</v>
+        <v>11.58923131887918</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.88962796251472</v>
+        <v>40.51697767971033</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.469252956196</v>
+        <v>17.01062966290524</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.649270593611574</v>
+        <v>13.4841829142901</v>
       </c>
       <c r="C14">
-        <v>5.909695343781263</v>
+        <v>6.121880806053744</v>
       </c>
       <c r="D14">
-        <v>5.268950205514461</v>
+        <v>5.23774346736903</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.43185790210666</v>
+        <v>22.36978156826989</v>
       </c>
       <c r="G14">
-        <v>3.628492020304445</v>
+        <v>2.065358432389759</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.325449953199287</v>
+        <v>11.51662681001193</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.76563980712389</v>
+        <v>40.04928284653141</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.4717423839687</v>
+        <v>16.96444081062061</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.621414237618012</v>
+        <v>13.41756928258612</v>
       </c>
       <c r="C15">
-        <v>5.905430884999443</v>
+        <v>6.116276522702724</v>
       </c>
       <c r="D15">
-        <v>5.263431993575491</v>
+        <v>5.2254066931011</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.4249356211625</v>
+        <v>22.29954240631898</v>
       </c>
       <c r="G15">
-        <v>3.628691617081777</v>
+        <v>2.066030287828293</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.302845941816804</v>
+        <v>11.47186316991004</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.68952344596023</v>
+        <v>39.76311512765931</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.47336248984715</v>
+        <v>16.93653404223206</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.46029715427678</v>
+        <v>13.02891225660084</v>
       </c>
       <c r="C16">
-        <v>5.880831679733789</v>
+        <v>6.082956698166938</v>
       </c>
       <c r="D16">
-        <v>5.231530306017594</v>
+        <v>5.153514882890336</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.3871761081573</v>
+        <v>21.90169504039532</v>
       </c>
       <c r="G16">
-        <v>3.629852518531863</v>
+        <v>2.069882427651301</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.171649394141166</v>
+        <v>11.21095607013036</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.25084876614374</v>
+        <v>38.12565432260734</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.48410542637273</v>
+        <v>16.78237369948817</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.360182549840971</v>
+        <v>12.78434054444043</v>
       </c>
       <c r="C17">
-        <v>5.8656001472045</v>
+        <v>6.061541547038384</v>
       </c>
       <c r="D17">
-        <v>5.211714302190792</v>
+        <v>5.108392416434021</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.36572076179882</v>
+        <v>21.66172054763534</v>
       </c>
       <c r="G17">
-        <v>3.63057998591382</v>
+        <v>2.072249940136906</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.089702719994273</v>
+        <v>11.04706664421938</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.97966009150152</v>
+        <v>37.12107466756586</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.49199603603594</v>
+        <v>16.69279489135119</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.302151249356486</v>
+        <v>12.64142338643512</v>
       </c>
       <c r="C18">
-        <v>5.856788947078917</v>
+        <v>6.048901757745615</v>
       </c>
       <c r="D18">
-        <v>5.200227956671554</v>
+        <v>5.082081940227377</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.35401014352255</v>
+        <v>21.52517452680629</v>
       </c>
       <c r="G18">
-        <v>3.631004041341979</v>
+        <v>2.073614197937169</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.042040711738316</v>
+        <v>10.95142415376652</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.82297390853345</v>
+        <v>36.54244968546337</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.49701167108492</v>
+        <v>16.64305041095237</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.28242790355641</v>
+        <v>12.59264934784322</v>
       </c>
       <c r="C19">
-        <v>5.853797088283136</v>
+        <v>6.044569861352295</v>
       </c>
       <c r="D19">
-        <v>5.196323782544544</v>
+        <v>5.073113850944437</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.35015348834542</v>
+        <v>21.47919500054621</v>
       </c>
       <c r="G19">
-        <v>3.631148588603959</v>
+        <v>2.074076627320883</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.025813277485748</v>
+        <v>10.91880738880676</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.76980709313503</v>
+        <v>36.34632827253761</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.49879176778874</v>
+        <v>16.62650816869388</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.370886761339179</v>
+        <v>12.81060831479823</v>
       </c>
       <c r="C20">
-        <v>5.867226817840819</v>
+        <v>6.063855340554758</v>
       </c>
       <c r="D20">
-        <v>5.21383296339841</v>
+        <v>5.113233123484166</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.36793956557812</v>
+        <v>21.68711252923971</v>
       </c>
       <c r="G20">
-        <v>3.63050196287833</v>
+        <v>2.071997672512667</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.098480979189791</v>
+        <v>11.06465619286805</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.00860294420515</v>
+        <v>37.22808176512915</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.49110666727998</v>
+        <v>16.70214536815628</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.662601559915514</v>
+        <v>13.51600301844405</v>
       </c>
       <c r="C21">
-        <v>5.911737368908495</v>
+        <v>6.1245453785533</v>
       </c>
       <c r="D21">
-        <v>5.271591351194028</v>
+        <v>5.243637445456956</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.43521101996411</v>
+        <v>22.4035468462074</v>
       </c>
       <c r="G21">
-        <v>3.628396610033403</v>
+        <v>2.065036256024478</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.336259500441709</v>
+        <v>11.53801341674009</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.8020938586866</v>
+        <v>40.1865859571004</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.47099132369501</v>
+        <v>16.97792696125205</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.848847716638456</v>
+        <v>13.95674150639506</v>
       </c>
       <c r="C22">
-        <v>5.940351355490375</v>
+        <v>6.1604973303534</v>
       </c>
       <c r="D22">
-        <v>5.308519168178968</v>
+        <v>5.325287066913339</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.48474263401324</v>
+        <v>22.88556180863553</v>
       </c>
       <c r="G22">
-        <v>3.627070490157543</v>
+        <v>2.060487510412549</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>8.486775969702709</v>
+        <v>11.83442521847021</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.31322627202044</v>
+        <v>42.13173473395197</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.46210671210897</v>
+        <v>17.17525526924291</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.749866732009743</v>
+        <v>13.72338284860807</v>
       </c>
       <c r="C23">
-        <v>5.925124411301675</v>
+        <v>6.141697043872977</v>
       </c>
       <c r="D23">
-        <v>5.288886645185122</v>
+        <v>5.282058229335719</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.45779975247493</v>
+        <v>22.62700120723606</v>
       </c>
       <c r="G23">
-        <v>3.627773720104337</v>
+        <v>2.06291638503141</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.406897691543611</v>
+        <v>11.67744722024901</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.04116146847797</v>
+        <v>41.09142398336924</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.46645807495054</v>
+        <v>17.06830838673287</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.36604885918266</v>
+        <v>12.79873984706488</v>
       </c>
       <c r="C24">
-        <v>5.866491569153095</v>
+        <v>6.062810287561939</v>
       </c>
       <c r="D24">
-        <v>5.212875408677372</v>
+        <v>5.111045785020862</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.36693449923727</v>
+        <v>21.67562840131955</v>
       </c>
       <c r="G24">
-        <v>3.630537218946763</v>
+        <v>2.072111712696874</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.094514038562606</v>
+        <v>11.05670837464285</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.99552028469007</v>
+        <v>37.17970740360872</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.49150725838681</v>
+        <v>16.69791256260313</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.935221158198355</v>
+        <v>11.71557793940245</v>
       </c>
       <c r="C25">
-        <v>5.801335220263713</v>
+        <v>5.965638503698076</v>
       </c>
       <c r="D25">
-        <v>5.127512921750752</v>
+        <v>4.91307433723157</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.29301828712395</v>
+        <v>20.70602456596713</v>
       </c>
       <c r="G25">
-        <v>3.633733759986708</v>
+        <v>2.082133998071699</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>7.737487795013874</v>
+        <v>10.33477030191013</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.84151004386216</v>
+        <v>32.92378714259507</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.53675875826899</v>
+        <v>16.36580565298588</v>
       </c>
     </row>
   </sheetData>
